--- a/config_debug/task_fishbowl_daily_server.xlsx
+++ b/config_debug/task_fishbowl_daily_server.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11111\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -22,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>id|任务id</t>
   </si>
@@ -68,6 +63,12 @@
     <t>|获得类型</t>
   </si>
   <si>
+    <t>累计喂食</t>
+  </si>
+  <si>
+    <t>累计喂鱼5次</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
@@ -77,9 +78,39 @@
     <t>946677600    |  2000-1-1   06:00:00</t>
   </si>
   <si>
+    <t>饲养鱼苗</t>
+  </si>
+  <si>
+    <t>养1条珍稀及以上品质的鱼</t>
+  </si>
+  <si>
+    <t>饲养黄金鱼苗</t>
+  </si>
+  <si>
+    <t>养1条黄金鱼</t>
+  </si>
+  <si>
+    <t>进行1次普通抽奖</t>
+  </si>
+  <si>
+    <t>累计收宝金币数</t>
+  </si>
+  <si>
+    <t>累计收宝星星数</t>
+  </si>
+  <si>
+    <t>捕获1条活动鱼</t>
+  </si>
+  <si>
+    <t>捕获1条BOSS鱼</t>
+  </si>
+  <si>
     <t>id|顺序id</t>
   </si>
   <si>
+    <t>condition_type|条件类型</t>
+  </si>
+  <si>
     <t>source_id|来源id</t>
   </si>
   <si>
@@ -92,6 +123,9 @@
     <t>get_award_type|获得奖励的方式("nor"普通,"random"随机  )</t>
   </si>
   <si>
+    <t>|</t>
+  </si>
+  <si>
     <t>nor</t>
   </si>
   <si>
@@ -101,9 +135,30 @@
     <t>source_type|来源类型</t>
   </si>
   <si>
+    <t>condition_id|来源的条件id</t>
+  </si>
+  <si>
     <t>process_discount|进度打折(0~1)</t>
   </si>
   <si>
+    <t>|说明</t>
+  </si>
+  <si>
+    <t>fishbowl_collecter_feed</t>
+  </si>
+  <si>
+    <t>fishbowl_hatch</t>
+  </si>
+  <si>
+    <t>fishbowl_lottery_num</t>
+  </si>
+  <si>
+    <t>fishbowl_collecter_award</t>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu</t>
+  </si>
+  <si>
     <t>id|行号</t>
   </si>
   <si>
@@ -122,34 +177,22 @@
     <t>|备注</t>
   </si>
   <si>
-    <t>award_id|奖励配置id</t>
-  </si>
-  <si>
-    <t>asset_type|财富类型</t>
-  </si>
-  <si>
-    <t>asset_count|财富数量</t>
-  </si>
-  <si>
-    <t>get_weight|获得的权重</t>
-  </si>
-  <si>
-    <t>broadcast_content|是否广播</t>
-  </si>
-  <si>
-    <t>|财富类型</t>
-  </si>
-  <si>
-    <t>|财富类型说明</t>
+    <t>fish_id</t>
+  </si>
+  <si>
+    <t>15,16,17,18,19,20,21,22</t>
+  </si>
+  <si>
+    <t>prop_type</t>
   </si>
   <si>
     <t>jing_bi</t>
   </si>
   <si>
-    <t>shop_ticket</t>
-  </si>
-  <si>
-    <t>diamond</t>
+    <t>prop_fishbowl_stars</t>
+  </si>
+  <si>
+    <t>base_fish_id</t>
   </si>
   <si>
     <r>
@@ -157,7 +200,71 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28,29,30,31,32,33,34,35,36,37</t>
+    </r>
+  </si>
+  <si>
+    <t>46,47,48,49,</t>
+  </si>
+  <si>
+    <t>award_id|奖励配置id</t>
+  </si>
+  <si>
+    <t>asset_type|财富类型</t>
+  </si>
+  <si>
+    <t>asset_count|财富数量</t>
+  </si>
+  <si>
+    <t>get_weight|获得的权重</t>
+  </si>
+  <si>
+    <t>broadcast_content|是否广播</t>
+  </si>
+  <si>
+    <t>|财富类型</t>
+  </si>
+  <si>
+    <t>|财富类型说明</t>
+  </si>
+  <si>
+    <t>shop_ticket</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_coin1</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -168,7 +275,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -179,7 +285,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -187,6 +292,9 @@
     </r>
   </si>
   <si>
+    <t>shop_gold_sum</t>
+  </si>
+  <si>
     <t>cash</t>
   </si>
   <si>
@@ -248,184 +356,19 @@
   </si>
   <si>
     <t>完成bbsc大步骤</t>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition_id|来源的条件id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>|说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>|</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition_type|条件类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计喂鱼5次</t>
-  </si>
-  <si>
-    <t>养1条珍稀及以上品质的鱼</t>
-  </si>
-  <si>
-    <t>养1条黄金鱼</t>
-  </si>
-  <si>
-    <t>进行1次普通抽奖</t>
-  </si>
-  <si>
-    <t>累计收宝金币数</t>
-  </si>
-  <si>
-    <t>累计收宝星星数</t>
-  </si>
-  <si>
-    <t>捕获1条活动鱼</t>
-  </si>
-  <si>
-    <t>捕获1条BOSS鱼</t>
-  </si>
-  <si>
-    <t>累计收宝金币数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计喂食</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>饲养鱼苗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishbowl_collecter_feed</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,16,17,18,19,20,21,22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>饲养黄金鱼苗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishbowl_collecter_award</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishbowl_lottery_num</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishbowl_hatch</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishbowl_hatch</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyu_3d_target_yu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyu_3d_target_yu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>base_fish_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>28,29,30,31,32,33,34,35,36,37</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>base_fish_id</t>
-  </si>
-  <si>
-    <t>46,47,48,49,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fishbowl_stars</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fishbowl_stars</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fishbowl_coin1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fishbowl_coin1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,34 +380,17 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -472,41 +398,167 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,8 +571,194 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -554,12 +792,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,89 +1051,124 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 4" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -911,12 +1426,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -925,1090 +1440,1092 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="6" customWidth="1"/>
-    <col min="3" max="4" width="24.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="27.5" style="6" customWidth="1"/>
-    <col min="10" max="10" width="25.625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="33" style="6" customWidth="1"/>
-    <col min="12" max="12" width="27.5" style="6" customWidth="1"/>
-    <col min="13" max="13" width="61" style="6" customWidth="1"/>
-    <col min="14" max="14" width="54.375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="35" style="6" customWidth="1"/>
-    <col min="16" max="16" width="108.5" style="6" customWidth="1"/>
-    <col min="17" max="17" width="28.875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="19.375" style="6" customWidth="1"/>
-    <col min="19" max="16384" width="11" style="6"/>
+    <col min="1" max="1" width="13.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="7" customWidth="1"/>
+    <col min="3" max="4" width="24.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="20" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="27.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="25.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="33" style="7" customWidth="1"/>
+    <col min="12" max="12" width="27.5" style="7" customWidth="1"/>
+    <col min="13" max="13" width="61" style="7" customWidth="1"/>
+    <col min="14" max="14" width="54.375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="35" style="7" customWidth="1"/>
+    <col min="16" max="16" width="108.5" style="7" customWidth="1"/>
+    <col min="17" max="17" width="28.875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="19.375" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="11" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" ht="27">
-      <c r="A1" s="20" t="s">
+    <row r="1" s="23" customFormat="1" ht="27" spans="1:13">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1">
-      <c r="A2" s="25">
+    <row r="2" s="6" customFormat="1" spans="1:13">
+      <c r="A2" s="9">
         <v>13501</v>
       </c>
-      <c r="B2" s="25">
-        <v>1</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="25">
+      <c r="E2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9">
         <v>13501</v>
       </c>
-      <c r="H2" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="25">
-        <v>1</v>
-      </c>
-      <c r="J2" s="25">
+      <c r="H2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
         <v>946656000</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="9">
         <v>32503651200</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="9">
         <v>-1</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:13">
+      <c r="A3" s="9">
+        <v>13502</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="14" customFormat="1">
-      <c r="A3" s="25">
+      <c r="F3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="9">
         <v>13502</v>
       </c>
-      <c r="B3" s="25">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="25">
-        <v>13502</v>
-      </c>
-      <c r="H3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="25">
-        <v>1</v>
-      </c>
-      <c r="J3" s="25">
+      <c r="H3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
         <v>946656000</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="9">
         <v>32503651200</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="9">
         <v>-1</v>
       </c>
-      <c r="M3" s="25"/>
-    </row>
-    <row r="4" spans="1:13" s="14" customFormat="1">
-      <c r="A4" s="25">
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:13">
+      <c r="A4" s="9">
         <v>13503</v>
       </c>
-      <c r="B4" s="25">
-        <v>1</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="9">
         <v>13503</v>
       </c>
-      <c r="H4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="25">
-        <v>1</v>
-      </c>
-      <c r="J4" s="25">
+      <c r="H4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
         <v>946656000</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="9">
         <v>32503651200</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="9">
         <v>-1</v>
       </c>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="1:13" s="14" customFormat="1">
-      <c r="A5" s="25">
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" s="6" customFormat="1" spans="1:13">
+      <c r="A5" s="9">
         <v>13504</v>
       </c>
-      <c r="B5" s="25">
-        <v>1</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="9">
         <v>13504</v>
       </c>
-      <c r="H5" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="25">
-        <v>1</v>
-      </c>
-      <c r="J5" s="25">
+      <c r="H5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
         <v>946656000</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="9">
         <v>32503651200</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="9">
         <v>-1</v>
       </c>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:13" s="14" customFormat="1">
-      <c r="A6" s="25">
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" s="6" customFormat="1" spans="1:13">
+      <c r="A6" s="9">
         <v>13505</v>
       </c>
-      <c r="B6" s="25">
-        <v>1</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="25">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="9">
         <v>13505</v>
       </c>
-      <c r="H6" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="25">
-        <v>1</v>
-      </c>
-      <c r="J6" s="25">
+      <c r="H6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
         <v>946656000</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="9">
         <v>32503651200</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="9">
         <v>-1</v>
       </c>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="1:13" s="14" customFormat="1">
-      <c r="A7" s="25">
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:13">
+      <c r="A7" s="9">
         <v>13506</v>
       </c>
-      <c r="B7" s="25">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="9">
         <v>13506</v>
       </c>
-      <c r="H7" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="25">
-        <v>1</v>
-      </c>
-      <c r="J7" s="25">
+      <c r="H7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
         <v>946656000</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="9">
         <v>32503651200</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="9">
         <v>-1</v>
       </c>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" s="14" customFormat="1">
-      <c r="A8" s="25">
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="1:13">
+      <c r="A8" s="9">
         <v>13507</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="9">
         <v>0</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="25">
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="9">
         <v>13507</v>
       </c>
-      <c r="H8" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="25">
-        <v>1</v>
-      </c>
-      <c r="J8" s="25">
+      <c r="H8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
         <v>946656000</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="9">
         <v>32503651200</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="9">
         <v>-1</v>
       </c>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" s="26" customFormat="1">
-      <c r="A9" s="25">
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" s="24" customFormat="1" spans="1:13">
+      <c r="A9" s="9">
         <v>13508</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="9">
         <v>0</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="25">
+      <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="9">
         <v>13508</v>
       </c>
-      <c r="H9" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="22">
-        <v>1</v>
-      </c>
-      <c r="J9" s="22">
+      <c r="H9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
         <v>946656000</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="9">
         <v>32503651200</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="9">
         <v>-1</v>
       </c>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="7:7">
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="7:7">
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="7:7">
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="7:7">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="7:7">
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="7:7">
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="7:7">
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="7:7">
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="7:7">
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="7:7">
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="7:7">
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="7:7">
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="7:7">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="7:7">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="7:7">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="7:7">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="7:7">
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="3:7">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="3:7">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="3:7">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="3:7">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="3:7">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="3:7">
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="3:7">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="3:7">
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="3:7">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="3:7">
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="3:7">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="3:7">
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="3:7">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="3:7">
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="3:7">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="3:7">
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="3:7">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="3:7">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="3:7">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="3:7">
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="3:7">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="3:7">
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="3:7">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="3:7">
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="3:7">
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="3:7">
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="3:7">
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="3:7">
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="3:7">
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="3:7">
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="3:7">
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="3:7">
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="3:7">
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="3:7">
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="3:7">
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="3:7">
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="3:7">
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="3:7">
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="3:7">
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="3:7">
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="3:7">
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="3:7">
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="3:7">
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="3:7">
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="3:7">
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="3:7">
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="3:7">
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="3:7">
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="3:7">
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="3:7">
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="3:7">
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="3:7">
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="3:7">
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="3:7">
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="3:7">
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="3:7">
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="3:7">
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="3:7">
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="3:7">
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="3:7">
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="3:7">
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="3:7">
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="3:7">
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="3:7">
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="3:7">
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="3:7">
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="3:7">
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="3:7">
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="3:7">
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="3:7">
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="3:7">
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="3:7">
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="3:7">
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="3:7">
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="3:7">
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="3:7">
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="3:7">
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="3:7">
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="3:7">
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="3:7">
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="3:7">
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="3:7">
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="3:7">
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="3:7">
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="3:7">
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="3:7">
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="3:7">
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="3:7">
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="3:7">
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="3:7">
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="3:7">
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="3:7">
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="3:7">
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="3:7">
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="3:7">
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="3:7">
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="3:7">
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="3:7">
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="3:7">
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="3:7">
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="25"/>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="3:7">
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="3:7">
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="3:7">
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="3:7">
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="3:7">
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="3:7">
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="3:7">
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="3:7">
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="3:7">
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="3:7">
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="3:7">
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="3:7">
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="3:7">
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="3:7">
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="25"/>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="3:7">
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="25"/>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="3:7">
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="25"/>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="3:7">
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="3:7">
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="3:7">
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="25"/>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="3:7">
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="25"/>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="3:7">
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="25"/>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="3:7">
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="25"/>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="3:7">
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="25"/>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="3:7">
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
       <c r="G155" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
@@ -2019,727 +2536,728 @@
     <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
     <col min="9" max="9" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="C1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>13501</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="9">
+        <v>13501</v>
+      </c>
+      <c r="E2" s="19">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9">
+        <v>13501</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>13502</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="9">
+        <v>13502</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>13502</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25">
-        <v>13501</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="25">
-        <v>13501</v>
-      </c>
-      <c r="E2" s="21">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>13503</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="9">
+        <v>13503</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>13503</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>13504</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="9">
+        <v>13504</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>13504</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="F2" s="25">
-        <v>13501</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="23">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25">
-        <v>13502</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="25">
-        <v>13502</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25">
-        <v>13502</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="23">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25">
-        <v>13503</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="25">
-        <v>13503</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="25">
-        <v>13503</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="23">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25">
-        <v>13504</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="25">
-        <v>13504</v>
-      </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="25">
-        <v>13504</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="23">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25">
+      <c r="B6" s="9">
         <v>13505</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="25">
+      <c r="C6" s="18"/>
+      <c r="D6" s="9">
         <v>13505</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>5000</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="9">
         <v>13505</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="23">
+      <c r="G6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="9">
         <v>13506</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25">
+      <c r="C7" s="18"/>
+      <c r="D7" s="9">
         <v>13506</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>50000</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="9">
         <v>13506</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="23">
+      <c r="G7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="9">
         <v>13507</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25">
+      <c r="C8" s="18"/>
+      <c r="D8" s="9">
         <v>13507</v>
       </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" s="25">
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
         <v>13507</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="17" customFormat="1">
-      <c r="A9" s="24">
+      <c r="G8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" s="16" customFormat="1" spans="1:8">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="9">
         <v>13508</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25">
+      <c r="C9" s="20"/>
+      <c r="D9" s="9">
         <v>13508</v>
       </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="25">
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
         <v>13508</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="F10" s="6"/>
+      <c r="G9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" s="7"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="F15" s="6"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="6:8">
-      <c r="F17" s="6"/>
+    <row r="11" spans="6:6">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="6:6">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="6:8">
+      <c r="F15" s="7"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="6"/>
+      <c r="F18" s="7"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="6:8">
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="6:8">
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="6:8">
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="6:8">
-      <c r="F22" s="6"/>
+    <row r="19" spans="6:6">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="6:8">
-      <c r="F23" s="6"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="6:8">
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="6:8">
-      <c r="F25" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="6:8">
-      <c r="F26" s="6"/>
+      <c r="F26" s="7"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="6:8">
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="6:8">
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="6:8">
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="6:8">
-      <c r="F30" s="6"/>
+    <row r="27" spans="6:6">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="6:8">
-      <c r="F31" s="6"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="6:8">
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="6"/>
+      <c r="F34" s="7"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="6:8">
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="6:8">
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="6:8">
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="6:8">
-      <c r="F38" s="6"/>
+    <row r="35" spans="6:6">
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="6"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="6:8">
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="6:8">
-      <c r="F41" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="6:8">
-      <c r="F42" s="6"/>
+      <c r="F42" s="7"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="6:8">
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="6:8">
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="6:8">
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="6:8">
-      <c r="F46" s="6"/>
+    <row r="43" spans="6:6">
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="6:8">
-      <c r="F47" s="6"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="6:8">
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="6:8">
-      <c r="F49" s="6"/>
+      <c r="F47" s="7"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="6:8">
-      <c r="F50" s="6"/>
+      <c r="F50" s="7"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="6:8">
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="6:8">
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="6:8">
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="6:8">
-      <c r="F54" s="6"/>
+    <row r="51" spans="6:6">
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="6:8">
-      <c r="F55" s="6"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="6:8">
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="6:8">
-      <c r="F57" s="6"/>
+      <c r="F55" s="7"/>
+      <c r="H55" s="21"/>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="7"/>
     </row>
     <row r="58" spans="6:8">
-      <c r="F58" s="6"/>
+      <c r="F58" s="7"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="6:8">
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="6:8">
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="6:8">
-      <c r="F61" s="6"/>
+    <row r="59" spans="6:6">
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" s="7"/>
     </row>
     <row r="62" spans="6:8">
-      <c r="F62" s="6"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="6:8">
-      <c r="F63" s="6"/>
+      <c r="F62" s="7"/>
+      <c r="H62" s="21"/>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="7"/>
     </row>
     <row r="64" spans="6:8">
-      <c r="F64" s="6"/>
+      <c r="F64" s="7"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="6:8">
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="6:8">
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="6:8">
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="6:8">
-      <c r="F68" s="6"/>
+    <row r="65" spans="6:6">
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="7"/>
     </row>
     <row r="69" spans="6:8">
-      <c r="F69" s="6"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="6:8">
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="6:8">
-      <c r="F71" s="6"/>
+      <c r="F69" s="7"/>
+      <c r="H69" s="21"/>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="7"/>
     </row>
     <row r="72" spans="6:8">
-      <c r="F72" s="6"/>
+      <c r="F72" s="7"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="6:8">
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="6:8">
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="6:8">
-      <c r="F75" s="6"/>
+    <row r="73" spans="6:6">
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" s="7"/>
     </row>
     <row r="76" spans="6:8">
-      <c r="F76" s="6"/>
+      <c r="F76" s="7"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="6:8">
-      <c r="F77" s="6"/>
+      <c r="F77" s="7"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="6:8">
-      <c r="F78" s="6"/>
+      <c r="F78" s="7"/>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="6:8">
-      <c r="F79" s="6"/>
+      <c r="F79" s="7"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="6:8">
-      <c r="F80" s="6"/>
+      <c r="F80" s="7"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="6:8">
-      <c r="F81" s="6"/>
+      <c r="F81" s="7"/>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="6:8">
-      <c r="F82" s="6"/>
+      <c r="F82" s="7"/>
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="6:8">
-      <c r="F83" s="6"/>
+      <c r="F83" s="7"/>
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="6:8">
-      <c r="F84" s="6"/>
+      <c r="F84" s="7"/>
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="6:8">
-      <c r="F85" s="6"/>
+      <c r="F85" s="7"/>
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="6:8">
-      <c r="F86" s="6"/>
+      <c r="F86" s="7"/>
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="6:8">
-      <c r="F87" s="6"/>
+      <c r="F87" s="7"/>
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="6:8">
-      <c r="F88" s="6"/>
+      <c r="F88" s="7"/>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="6:8">
-      <c r="F89" s="6"/>
+      <c r="F89" s="7"/>
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="6:8">
-      <c r="F90" s="6"/>
+      <c r="F90" s="7"/>
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="6:8">
-      <c r="F91" s="6"/>
+      <c r="F91" s="7"/>
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="6:8">
-      <c r="F92" s="6"/>
+      <c r="F92" s="7"/>
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="6:8">
-      <c r="F93" s="6"/>
+      <c r="F93" s="7"/>
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="6:8">
-      <c r="F94" s="6"/>
+      <c r="F94" s="7"/>
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="6:8">
-      <c r="F95" s="6"/>
+      <c r="F95" s="7"/>
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="6:8">
-      <c r="F96" s="6"/>
+      <c r="F96" s="7"/>
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="6:8">
-      <c r="F97" s="6"/>
+      <c r="F97" s="7"/>
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="6:8">
-      <c r="F98" s="6"/>
+      <c r="F98" s="7"/>
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="6:8">
-      <c r="F99" s="6"/>
+      <c r="F99" s="7"/>
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="6:8">
-      <c r="F100" s="6"/>
+      <c r="F100" s="7"/>
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="6:8">
-      <c r="F101" s="6"/>
+      <c r="F101" s="7"/>
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="6:8">
-      <c r="F102" s="6"/>
+      <c r="F102" s="7"/>
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="6:8">
-      <c r="F103" s="6"/>
+      <c r="F103" s="7"/>
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="6:8">
-      <c r="F104" s="6"/>
+      <c r="F104" s="7"/>
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="6:8">
-      <c r="F105" s="6"/>
+      <c r="F105" s="7"/>
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="6:8">
-      <c r="F106" s="6"/>
+      <c r="F106" s="7"/>
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="6:8">
-      <c r="F107" s="6"/>
+      <c r="F107" s="7"/>
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="6:8">
-      <c r="F108" s="6"/>
+      <c r="F108" s="7"/>
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="6:8">
-      <c r="F109" s="6"/>
+      <c r="F109" s="7"/>
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="6:8">
-      <c r="F110" s="6"/>
+      <c r="F110" s="7"/>
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="6:8">
-      <c r="F111" s="6"/>
+      <c r="F111" s="7"/>
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="6:8">
-      <c r="F112" s="6"/>
+      <c r="F112" s="7"/>
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="6:8">
-      <c r="F113" s="6"/>
+      <c r="F113" s="7"/>
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="6:8">
-      <c r="F114" s="6"/>
+      <c r="F114" s="7"/>
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="6:8">
-      <c r="F115" s="6"/>
+      <c r="F115" s="7"/>
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="6:8">
-      <c r="F116" s="6"/>
+      <c r="F116" s="7"/>
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="6:8">
-      <c r="F117" s="6"/>
+      <c r="F117" s="7"/>
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="6:8">
-      <c r="F118" s="6"/>
+      <c r="F118" s="7"/>
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="6:8">
-      <c r="F119" s="6"/>
+      <c r="F119" s="7"/>
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="6:8">
-      <c r="F120" s="6"/>
+      <c r="F120" s="7"/>
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="6:8">
-      <c r="F121" s="6"/>
+      <c r="F121" s="7"/>
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="6:8">
-      <c r="F122" s="6"/>
+      <c r="F122" s="7"/>
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="6:8">
-      <c r="F123" s="6"/>
+      <c r="F123" s="7"/>
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="6:8">
-      <c r="F124" s="6"/>
+      <c r="F124" s="7"/>
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="6:8">
-      <c r="F125" s="6"/>
+      <c r="F125" s="7"/>
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="6:8">
-      <c r="F126" s="6"/>
+      <c r="F126" s="7"/>
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="6:8">
-      <c r="F127" s="6"/>
+      <c r="F127" s="7"/>
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="6:8">
-      <c r="F128" s="6"/>
+      <c r="F128" s="7"/>
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="6:8">
-      <c r="F129" s="6"/>
+      <c r="F129" s="7"/>
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="6:8">
-      <c r="F130" s="6"/>
+      <c r="F130" s="7"/>
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="6:8">
-      <c r="F131" s="6"/>
+      <c r="F131" s="7"/>
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="6:8">
-      <c r="F132" s="6"/>
+      <c r="F132" s="7"/>
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="6:8">
-      <c r="F133" s="6"/>
+      <c r="F133" s="7"/>
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="6:8">
-      <c r="F134" s="6"/>
+      <c r="F134" s="7"/>
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="6:8">
-      <c r="F135" s="6"/>
+      <c r="F135" s="7"/>
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="6:8">
-      <c r="F136" s="6"/>
+      <c r="F136" s="7"/>
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="6:8">
-      <c r="F137" s="6"/>
+      <c r="F137" s="7"/>
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="6:8">
-      <c r="F138" s="6"/>
+      <c r="F138" s="7"/>
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="6:8">
-      <c r="F139" s="6"/>
+      <c r="F139" s="7"/>
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="6:8">
-      <c r="F140" s="6"/>
+      <c r="F140" s="7"/>
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="6:8">
-      <c r="F141" s="6"/>
+      <c r="F141" s="7"/>
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="6:8">
-      <c r="F142" s="6"/>
+      <c r="F142" s="7"/>
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="6:8">
-      <c r="F143" s="6"/>
+      <c r="F143" s="7"/>
       <c r="H143" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2753,183 +3271,184 @@
     <col min="4" max="4" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="54">
+    <row r="1" ht="54" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="9">
         <v>13501</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="9">
         <v>13502</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="15">
         <v>13502</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="9">
         <v>13503</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="15">
         <v>13503</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="9">
         <v>13504</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="9">
         <v>13505</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="C6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9">
         <v>13505</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="9">
         <v>13506</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="C7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="9">
         <v>13506</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="9">
         <v>13507</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="C8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="9">
         <v>13507</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="9">
         <v>13508</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="25">
+      <c r="C9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9">
         <v>13508</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="C12" s="9"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="C13" s="9"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
+    <row r="10" spans="3:4">
+      <c r="C10" s="12"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="12"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="12"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="12"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="12"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="12"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="12"/>
+      <c r="D16" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="143.375" style="1" customWidth="1"/>
@@ -2937,356 +3456,360 @@
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="66.95" customHeight="1">
+    <row r="1" ht="66.95" customHeight="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
         <v>13502</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="12">
         <v>8</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6">
+    <row r="3" spans="1:5">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>13503</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>82</v>
+      <c r="C3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6">
+    <row r="4" spans="1:5">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="9">
         <v>13505</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>91</v>
+      <c r="C4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6">
+    <row r="5" spans="1:5">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="9">
         <v>13506</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>98</v>
+      <c r="C5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6">
+    <row r="6" spans="1:5">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="9">
         <v>13507</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>95</v>
+      <c r="C6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6">
+    <row r="7" spans="1:5">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="9">
         <v>13508</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>97</v>
+        <v>56</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="6" customWidth="1"/>
-    <col min="3" max="4" width="22.625" style="6" customWidth="1"/>
-    <col min="5" max="6" width="20.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="30.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="34" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="6" customWidth="1"/>
-    <col min="10" max="10" width="40" style="6" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="8.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="7" customWidth="1"/>
+    <col min="3" max="4" width="22.625" style="7" customWidth="1"/>
+    <col min="5" max="6" width="20.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="30.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="34" style="7" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="40" style="7" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="14" customFormat="1">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25">
+    <row r="1" s="5" customFormat="1" ht="38.45" customHeight="1" spans="1:8">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:7">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
         <v>13501</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="C2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="6">
         <v>2000</v>
       </c>
-      <c r="E2" s="14">
-        <v>1</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="14" customFormat="1">
-      <c r="A3" s="14">
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="9">
         <v>13502</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="14" customFormat="1">
-      <c r="A4" s="14">
+      <c r="C3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="9">
         <v>13503</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="14" customFormat="1">
-      <c r="A5" s="14">
+      <c r="C4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1" spans="1:8">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="9">
         <v>13504</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="14" customFormat="1">
-      <c r="A6" s="14">
+      <c r="C5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" spans="1:8">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="9">
         <v>13505</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="C6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="6">
         <v>5000</v>
       </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" s="14" customFormat="1">
-      <c r="A7" s="14">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="9">
         <v>13506</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="C7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="6">
         <v>5000</v>
       </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="14" customFormat="1">
-      <c r="A8" s="14">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="1:5">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="9">
         <v>13507</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="14" customFormat="1">
-      <c r="A9" s="14">
+      <c r="C8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:6">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="9">
         <v>13508</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="14">
+      <c r="C9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="6">
         <v>5000</v>
       </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C9"/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <autoFilter ref="C1:C9">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="29.875" customWidth="1"/>
     <col min="2" max="2" width="62.875" customWidth="1"/>
@@ -3294,82 +3817,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3445,8 +3968,8 @@
       <c r="B29" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/task_fishbowl_daily_server.xlsx
+++ b/config_debug/task_fishbowl_daily_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>id|任务id</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>养1条黄金鱼</t>
+  </si>
+  <si>
+    <t>进行1次抽奖</t>
   </si>
   <si>
     <t>进行1次普通抽奖</t>
@@ -364,11 +367,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,13 +399,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -422,13 +418,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -436,8 +468,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,37 +510,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -491,38 +517,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,16 +539,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,7 +569,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,175 +743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,6 +804,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -819,6 +833,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,39 +878,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -881,25 +886,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,138 +904,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1066,26 +1062,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1106,10 +1096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1434,8 +1421,8 @@
   <sheetPr/>
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1460,44 +1447,44 @@
     <col min="19" max="16384" width="11" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="27" spans="1:13">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="21" customFormat="1" ht="27" spans="1:13">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1631,7 +1618,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>15</v>
@@ -1667,10 +1654,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>15</v>
@@ -1706,10 +1693,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>15</v>
@@ -1745,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>15</v>
@@ -1776,7 +1763,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" s="24" customFormat="1" spans="1:13">
+    <row r="9" s="22" customFormat="1" spans="1:13">
       <c r="A9" s="9">
         <v>13508</v>
       </c>
@@ -1784,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>15</v>
@@ -1867,648 +1854,648 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="3:7">
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="3:7">
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="3:7">
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="3:7">
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="3:7">
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="3:7">
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="3:7">
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="3:7">
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="3:7">
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="3:7">
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="3:7">
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="3:7">
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="3:7">
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="3:7">
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="3:7">
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="3:7">
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="3:7">
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="3:7">
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="3:7">
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="3:7">
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="3:7">
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="3:7">
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="3:7">
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="3:7">
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="3:7">
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="3:7">
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="3:7">
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="3:7">
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="3:7">
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="3:7">
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="3:7">
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="3:7">
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="3:7">
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="3:7">
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="3:7">
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="3:7">
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="3:7">
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="3:7">
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="3:7">
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="3:7">
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="3:7">
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="3:7">
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="3:7">
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="3:7">
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="3:7">
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="3:7">
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="3:7">
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="3:7">
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="3:7">
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="3:7">
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="3:7">
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="3:7">
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="3:7">
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="3:7">
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="3:7">
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="3:7">
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="3:7">
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="3:7">
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="3:7">
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="3:7">
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="3:7">
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="3:7">
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="3:7">
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="3:7">
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="3:7">
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="3:7">
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="3:7">
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="3:7">
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="3:7">
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="3:7">
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="3:7">
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="3:7">
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="3:7">
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="3:7">
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="3:7">
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="3:7">
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="3:7">
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="3:7">
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="3:7">
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="3:7">
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="3:7">
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="3:7">
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="3:7">
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="3:7">
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="3:7">
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="3:7">
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="3:7">
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="3:7">
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="3:7">
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="3:7">
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="3:7">
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="3:7">
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="3:7">
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="3:7">
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="3:7">
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="3:7">
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="3:7">
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="3:7">
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="3:7">
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="3:7">
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="3:7">
-      <c r="C132" s="25"/>
-      <c r="D132" s="25"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="3:7">
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="3:7">
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="3:7">
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="3:7">
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="3:7">
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="3:7">
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="3:7">
-      <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="3:7">
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="3:7">
-      <c r="C141" s="25"/>
-      <c r="D141" s="25"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="3:7">
-      <c r="C142" s="25"/>
-      <c r="D142" s="25"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="3:7">
-      <c r="C143" s="25"/>
-      <c r="D143" s="25"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="3:7">
-      <c r="C144" s="25"/>
-      <c r="D144" s="25"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="3:7">
-      <c r="C145" s="25"/>
-      <c r="D145" s="25"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="3:7">
-      <c r="C146" s="25"/>
-      <c r="D146" s="25"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="3:7">
-      <c r="C147" s="25"/>
-      <c r="D147" s="25"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="3:7">
-      <c r="C148" s="25"/>
-      <c r="D148" s="25"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="3:7">
-      <c r="C149" s="25"/>
-      <c r="D149" s="25"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="3:7">
-      <c r="C150" s="25"/>
-      <c r="D150" s="25"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="3:7">
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="3:7">
-      <c r="C152" s="25"/>
-      <c r="D152" s="25"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="3:7">
-      <c r="C153" s="25"/>
-      <c r="D153" s="25"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="3:7">
-      <c r="C154" s="25"/>
-      <c r="D154" s="25"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="3:7">
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
       <c r="G155" s="1"/>
     </row>
   </sheetData>
@@ -2526,7 +2513,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F9"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2543,208 +2530,208 @@
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:9">
-      <c r="A1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="22"/>
+      <c r="H1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="18">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>13501</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="9">
         <v>13501</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <v>5</v>
       </c>
       <c r="F2" s="9">
         <v>13501</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>34</v>
+      <c r="G2" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="9">
         <v>13502</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="9">
         <v>13502</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>1</v>
       </c>
       <c r="F3" s="9">
         <v>13502</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>34</v>
+      <c r="G3" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="18">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <v>13503</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="9">
         <v>13503</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <v>1</v>
       </c>
       <c r="F4" s="9">
         <v>13503</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>34</v>
+      <c r="G4" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="9">
         <v>13504</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="9">
         <v>13504</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="9">
         <v>13504</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>34</v>
+      <c r="G5" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="9">
         <v>13505</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="9">
         <v>13505</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>5000</v>
       </c>
       <c r="F6" s="9">
         <v>13505</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>34</v>
+      <c r="G6" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="9">
         <v>13506</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="9">
         <v>13506</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>50000</v>
       </c>
       <c r="F7" s="9">
         <v>13506</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>34</v>
+      <c r="G7" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="9">
         <v>13507</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="9">
         <v>13507</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <v>1</v>
       </c>
       <c r="F8" s="9">
         <v>13507</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>34</v>
+      <c r="G8" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" s="16" customFormat="1" spans="1:8">
-      <c r="A9" s="20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" s="14" customFormat="1" spans="1:8">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="9">
         <v>13508</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="9">
         <v>13508</v>
       </c>
@@ -2754,11 +2741,11 @@
       <c r="F9" s="9">
         <v>13508</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>34</v>
+      <c r="G9" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="6:8">
@@ -2779,7 +2766,7 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" s="7"/>
-      <c r="H15" s="21"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="6:6">
       <c r="F16" s="7"/>
@@ -2805,7 +2792,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" s="7"/>
-      <c r="H23" s="21"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" s="7"/>
@@ -2831,7 +2818,7 @@
     </row>
     <row r="31" spans="6:8">
       <c r="F31" s="7"/>
-      <c r="H31" s="21"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" s="7"/>
@@ -2857,7 +2844,7 @@
     </row>
     <row r="39" spans="6:8">
       <c r="F39" s="7"/>
-      <c r="H39" s="21"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" s="7"/>
@@ -2883,7 +2870,7 @@
     </row>
     <row r="47" spans="6:8">
       <c r="F47" s="7"/>
-      <c r="H47" s="21"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="7"/>
@@ -2909,7 +2896,7 @@
     </row>
     <row r="55" spans="6:8">
       <c r="F55" s="7"/>
-      <c r="H55" s="21"/>
+      <c r="H55" s="19"/>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" s="7"/>
@@ -2932,7 +2919,7 @@
     </row>
     <row r="62" spans="6:8">
       <c r="F62" s="7"/>
-      <c r="H62" s="21"/>
+      <c r="H62" s="19"/>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" s="7"/>
@@ -2955,7 +2942,7 @@
     </row>
     <row r="69" spans="6:8">
       <c r="F69" s="7"/>
-      <c r="H69" s="21"/>
+      <c r="H69" s="19"/>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="7"/>
@@ -3261,7 +3248,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3273,22 +3260,22 @@
   <sheetData>
     <row r="1" ht="54" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3301,10 +3288,10 @@
       <c r="B2" s="9">
         <v>13501</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="15"/>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
@@ -3313,10 +3300,10 @@
       <c r="B3" s="9">
         <v>13502</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="13">
         <v>13502</v>
       </c>
     </row>
@@ -3327,10 +3314,10 @@
       <c r="B4" s="9">
         <v>13503</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="13">
         <v>13503</v>
       </c>
     </row>
@@ -3341,10 +3328,10 @@
       <c r="B5" s="9">
         <v>13504</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="15"/>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
@@ -3353,8 +3340,8 @@
       <c r="B6" s="9">
         <v>13505</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>43</v>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D6" s="9">
         <v>13505</v>
@@ -3367,8 +3354,8 @@
       <c r="B7" s="9">
         <v>13506</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>43</v>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D7" s="9">
         <v>13506</v>
@@ -3381,8 +3368,8 @@
       <c r="B8" s="9">
         <v>13507</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>44</v>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="9">
         <v>13507</v>
@@ -3395,40 +3382,40 @@
       <c r="B9" s="9">
         <v>13508</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>44</v>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="9">
         <v>13508</v>
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="12"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="12"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="12"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="12"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="12"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="12"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="12"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3442,7 +3429,7 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -3458,22 +3445,22 @@
   <sheetData>
     <row r="1" ht="66.95" customHeight="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3483,10 +3470,10 @@
       <c r="B2" s="7">
         <v>13502</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3">
         <v>8</v>
       </c>
       <c r="E2" s="1">
@@ -3500,11 +3487,11 @@
       <c r="B3" s="7">
         <v>13503</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -3517,11 +3504,11 @@
       <c r="B4" s="9">
         <v>13505</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -3534,11 +3521,11 @@
       <c r="B5" s="9">
         <v>13506</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>55</v>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -3551,11 +3538,11 @@
       <c r="B6" s="9">
         <v>13507</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>57</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -3569,10 +3556,10 @@
         <v>13508</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -3610,28 +3597,28 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="38.45" customHeight="1" spans="1:8">
       <c r="A1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:7">
@@ -3642,7 +3629,7 @@
         <v>13501</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6">
         <v>2000</v>
@@ -3651,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:5">
@@ -3662,7 +3649,7 @@
         <v>13502</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -3679,7 +3666,7 @@
         <v>13503</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -3688,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" spans="1:8">
@@ -3699,7 +3686,7 @@
         <v>13504</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -3708,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>69</v>
+        <v>55</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" spans="1:8">
@@ -3722,7 +3709,7 @@
         <v>13505</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6">
         <v>5000</v>
@@ -3731,9 +3718,9 @@
         <v>1</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:7">
       <c r="A7" s="6">
@@ -3743,7 +3730,7 @@
         <v>13506</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6">
         <v>5000</v>
@@ -3751,8 +3738,8 @@
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>71</v>
+      <c r="G7" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" spans="1:5">
@@ -3763,7 +3750,7 @@
         <v>13507</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -3780,7 +3767,7 @@
         <v>13508</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6">
         <v>5000</v>
@@ -3817,82 +3804,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2">
